--- a/input/reg_health_wellbeing.xlsx
+++ b/input/reg_health_wellbeing.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andy_local\SimPaths project files\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AE3B9-DBA2-4884-9F1C-B32A35C27D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2219F698-D79E-4541-A4E7-A159D929903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="13200" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UK_DHE_MCS2_Males" sheetId="11" r:id="rId1"/>
-    <sheet name="UK_DHE_MCS2_Females" sheetId="12" r:id="rId2"/>
-    <sheet name="UK_DHE_PCS1" sheetId="13" r:id="rId3"/>
-    <sheet name="UK_DHE_PCS2_Males" sheetId="14" r:id="rId4"/>
-    <sheet name="UK_DHE_PCS2_Females" sheetId="15" r:id="rId5"/>
-    <sheet name="UK_DLS1" sheetId="16" r:id="rId6"/>
-    <sheet name="UK_DLS2_Males" sheetId="17" r:id="rId7"/>
-    <sheet name="UK_DLS2_Females" sheetId="18" r:id="rId8"/>
+    <sheet name="UK_DHE_MCS1" sheetId="19" r:id="rId1"/>
+    <sheet name="UK_DHE_MCS2_Males" sheetId="11" r:id="rId2"/>
+    <sheet name="UK_DHE_MCS2_Females" sheetId="12" r:id="rId3"/>
+    <sheet name="UK_DHE_PCS1" sheetId="13" r:id="rId4"/>
+    <sheet name="UK_DHE_PCS2_Males" sheetId="14" r:id="rId5"/>
+    <sheet name="UK_DHE_PCS2_Females" sheetId="15" r:id="rId6"/>
+    <sheet name="UK_DLS1" sheetId="16" r:id="rId7"/>
+    <sheet name="UK_DLS2_Males" sheetId="17" r:id="rId8"/>
+    <sheet name="UK_DLS2_Females" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="42">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -485,10 +486,2877 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF79E5D1-19CA-4140-9EF3-9DF223A552D2}">
+  <dimension ref="A1:AE30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.148898903134182</v>
+      </c>
+      <c r="C2">
+        <v>6.1198613967361299E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.4641079914706601E-3</v>
+      </c>
+      <c r="E2">
+        <v>-1.4092815590271001E-3</v>
+      </c>
+      <c r="F2">
+        <v>-1.23856765087202E-3</v>
+      </c>
+      <c r="G2">
+        <v>-8.9987213012252204E-4</v>
+      </c>
+      <c r="H2">
+        <v>-1.640581448833E-3</v>
+      </c>
+      <c r="I2">
+        <v>-2.5712778826147498E-3</v>
+      </c>
+      <c r="J2">
+        <v>-1.33716020202354E-3</v>
+      </c>
+      <c r="K2">
+        <v>-1.30092978518085E-3</v>
+      </c>
+      <c r="L2">
+        <v>-1.29008079458436E-3</v>
+      </c>
+      <c r="M2">
+        <v>-1.15738202490393E-3</v>
+      </c>
+      <c r="N2">
+        <v>-4.6368933687013301E-4</v>
+      </c>
+      <c r="O2">
+        <v>-5.6343147122538205E-4</v>
+      </c>
+      <c r="P2">
+        <v>-7.5060985707121398E-4</v>
+      </c>
+      <c r="Q2">
+        <v>5.2653267161984797E-4</v>
+      </c>
+      <c r="R2">
+        <v>-6.8693822403318003E-4</v>
+      </c>
+      <c r="S2">
+        <v>-2.6184205434578702E-4</v>
+      </c>
+      <c r="T2">
+        <v>-4.1299251457160401E-4</v>
+      </c>
+      <c r="U2">
+        <v>-1.14208761414163E-4</v>
+      </c>
+      <c r="V2">
+        <v>-1.7927489265219E-4</v>
+      </c>
+      <c r="W2">
+        <v>-3.3581363057382798E-4</v>
+      </c>
+      <c r="X2">
+        <v>8.2895357875404101E-4</v>
+      </c>
+      <c r="Y2">
+        <v>3.6333099468772797E-5</v>
+      </c>
+      <c r="Z2">
+        <v>-2.65372853230976E-5</v>
+      </c>
+      <c r="AA2">
+        <v>1.12053187463069E-7</v>
+      </c>
+      <c r="AB2">
+        <v>-8.9402028341862002E-6</v>
+      </c>
+      <c r="AC2">
+        <v>1.5019478353939801E-5</v>
+      </c>
+      <c r="AD2">
+        <v>-2.18341334597866E-4</v>
+      </c>
+      <c r="AE2">
+        <v>-2.23531119898968E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.53449108356654E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.4641079914706601E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.13229066946441E-2</v>
+      </c>
+      <c r="E3">
+        <v>-1.41378574340432E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.4194719868509799E-3</v>
+      </c>
+      <c r="G3">
+        <v>-8.7415415184688699E-4</v>
+      </c>
+      <c r="H3">
+        <v>-1.74583925072145E-3</v>
+      </c>
+      <c r="I3">
+        <v>-2.6082101465483001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-1.5382088896947099E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.32453238076709E-3</v>
+      </c>
+      <c r="L3">
+        <v>-1.2102992679693301E-3</v>
+      </c>
+      <c r="M3">
+        <v>-1.6793935434452499E-3</v>
+      </c>
+      <c r="N3">
+        <v>-9.8148669146422296E-5</v>
+      </c>
+      <c r="O3">
+        <v>-1.88874602709816E-3</v>
+      </c>
+      <c r="P3">
+        <v>-4.16676996399357E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1.30192127331598E-3</v>
+      </c>
+      <c r="R3">
+        <v>-2.23617551619233E-4</v>
+      </c>
+      <c r="S3">
+        <v>1.83800444310347E-4</v>
+      </c>
+      <c r="T3">
+        <v>-2.25635213407737E-4</v>
+      </c>
+      <c r="U3">
+        <v>1.43893994920747E-4</v>
+      </c>
+      <c r="V3">
+        <v>6.1993500637285695E-4</v>
+      </c>
+      <c r="W3">
+        <v>7.3459289224300903E-4</v>
+      </c>
+      <c r="X3">
+        <v>2.2534248743163901E-3</v>
+      </c>
+      <c r="Y3">
+        <v>1.31662138524902E-4</v>
+      </c>
+      <c r="Z3">
+        <v>4.7316022995788703E-5</v>
+      </c>
+      <c r="AA3">
+        <v>-1.23846419788433E-6</v>
+      </c>
+      <c r="AB3">
+        <v>8.7416989810492898E-6</v>
+      </c>
+      <c r="AC3">
+        <v>1.32212527430012E-5</v>
+      </c>
+      <c r="AD3">
+        <v>6.4452061576201697E-5</v>
+      </c>
+      <c r="AE3">
+        <v>-6.5279493335442798E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.113627303756402</v>
+      </c>
+      <c r="C4">
+        <v>-1.4092815590271001E-3</v>
+      </c>
+      <c r="D4">
+        <v>-1.41378574340432E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.6106928782912301E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.48249621375966E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.47515783156993E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.49179072968336E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.53861186122766E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.46573066804347E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.4526026863524E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.4817475089732199E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.48224730397939E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.4655757353719601E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.47929833451675E-2</v>
+      </c>
+      <c r="P4">
+        <v>5.7986357500944697E-4</v>
+      </c>
+      <c r="Q4">
+        <v>-1.53540364743244E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.0868198542333401E-3</v>
+      </c>
+      <c r="S4">
+        <v>-2.96070419583276E-4</v>
+      </c>
+      <c r="T4">
+        <v>3.7632056665104902E-5</v>
+      </c>
+      <c r="U4">
+        <v>5.7451599723462696E-4</v>
+      </c>
+      <c r="V4">
+        <v>-2.71675097917612E-5</v>
+      </c>
+      <c r="W4">
+        <v>4.1647094008728298E-4</v>
+      </c>
+      <c r="X4">
+        <v>1.18286212287421E-3</v>
+      </c>
+      <c r="Y4">
+        <v>-6.7018439924066998E-5</v>
+      </c>
+      <c r="Z4">
+        <v>1.0069879560409099E-4</v>
+      </c>
+      <c r="AA4">
+        <v>-7.9196306900298099E-7</v>
+      </c>
+      <c r="AB4">
+        <v>3.5643107266147402E-7</v>
+      </c>
+      <c r="AC4">
+        <v>2.3970914462500599E-5</v>
+      </c>
+      <c r="AD4">
+        <v>2.5278832512364599E-5</v>
+      </c>
+      <c r="AE4">
+        <v>-1.6847735244510401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.14109010772091299</v>
+      </c>
+      <c r="C5">
+        <v>-1.23856765087202E-3</v>
+      </c>
+      <c r="D5">
+        <v>-1.4194719868509799E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.48249621375966E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.3928817984659598E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.4631707224452801E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.48027250268959E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.52028412656824E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.45227244561138E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.44392135098802E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.46475401892255E-2</v>
+      </c>
+      <c r="M5">
+        <v>1.46535755397444E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.45378630798492E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.4690441517411701E-2</v>
+      </c>
+      <c r="P5">
+        <v>-8.0456137411464006E-6</v>
+      </c>
+      <c r="Q5">
+        <v>-1.57974392812893E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.38947917013926E-3</v>
+      </c>
+      <c r="S5">
+        <v>-5.7959967245407504E-4</v>
+      </c>
+      <c r="T5">
+        <v>6.5474504586370799E-4</v>
+      </c>
+      <c r="U5">
+        <v>2.9248802361893999E-5</v>
+      </c>
+      <c r="V5">
+        <v>-5.7135309809450802E-4</v>
+      </c>
+      <c r="W5">
+        <v>-6.4953337534689895E-5</v>
+      </c>
+      <c r="X5">
+        <v>4.44799907389264E-4</v>
+      </c>
+      <c r="Y5">
+        <v>-6.9632895909373896E-5</v>
+      </c>
+      <c r="Z5">
+        <v>4.3295616268281399E-5</v>
+      </c>
+      <c r="AA5">
+        <v>-1.88903767690967E-7</v>
+      </c>
+      <c r="AB5">
+        <v>2.7638582892108599E-5</v>
+      </c>
+      <c r="AC5">
+        <v>5.8559924784632698E-6</v>
+      </c>
+      <c r="AD5">
+        <v>8.2554415797124402E-5</v>
+      </c>
+      <c r="AE5">
+        <v>-1.50517433893554E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.21463762315858001</v>
+      </c>
+      <c r="C6">
+        <v>-8.9987213012252204E-4</v>
+      </c>
+      <c r="D6">
+        <v>-8.7415415184688699E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.47515783156993E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4631707224452801E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9510837480314099E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.46009538483156E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.51619600133627E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.44962078500893E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.43968788256181E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.46516792386223E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.45695905994308E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.4471519891933E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.45467904501487E-2</v>
+      </c>
+      <c r="P6">
+        <v>-2.6688944122158599E-5</v>
+      </c>
+      <c r="Q6">
+        <v>-9.2676769723834995E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.2139389885349699E-3</v>
+      </c>
+      <c r="S6">
+        <v>-2.4129255916666199E-4</v>
+      </c>
+      <c r="T6">
+        <v>5.3986246087773898E-5</v>
+      </c>
+      <c r="U6">
+        <v>-2.01355720936551E-4</v>
+      </c>
+      <c r="V6">
+        <v>1.17797936279322E-4</v>
+      </c>
+      <c r="W6">
+        <v>3.6668428570001301E-5</v>
+      </c>
+      <c r="X6">
+        <v>7.0935345386362802E-4</v>
+      </c>
+      <c r="Y6">
+        <v>-4.5917840359268E-5</v>
+      </c>
+      <c r="Z6">
+        <v>2.6533468025647001E-5</v>
+      </c>
+      <c r="AA6">
+        <v>-1.6218328779773499E-7</v>
+      </c>
+      <c r="AB6">
+        <v>-1.51128469591007E-5</v>
+      </c>
+      <c r="AC6">
+        <v>1.0075959720732401E-5</v>
+      </c>
+      <c r="AD6">
+        <v>6.2911112894952002E-4</v>
+      </c>
+      <c r="AE6">
+        <v>-1.38081263080259E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.33361413116307398</v>
+      </c>
+      <c r="C7">
+        <v>-1.640581448833E-3</v>
+      </c>
+      <c r="D7">
+        <v>-1.74583925072145E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.49179072968336E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.48027250268959E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.46009538483156E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.50646956318962E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.5449389374973701E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.46013068374984E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.44786050339337E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.4656820292998101E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.47437433520663E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.45251010826285E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.4875103624333801E-2</v>
+      </c>
+      <c r="P7">
+        <v>2.81735606895342E-4</v>
+      </c>
+      <c r="Q7">
+        <v>-1.3283169987019299E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.1602239022913501E-3</v>
+      </c>
+      <c r="S7">
+        <v>-9.2824768774424699E-5</v>
+      </c>
+      <c r="T7">
+        <v>3.5023655860301299E-4</v>
+      </c>
+      <c r="U7">
+        <v>1.9420780197411099E-4</v>
+      </c>
+      <c r="V7">
+        <v>-5.6793705608299E-5</v>
+      </c>
+      <c r="W7">
+        <v>3.74734660460029E-4</v>
+      </c>
+      <c r="X7">
+        <v>7.87930054687219E-4</v>
+      </c>
+      <c r="Y7">
+        <v>-1.08596773067948E-4</v>
+      </c>
+      <c r="Z7">
+        <v>8.4539020346882299E-5</v>
+      </c>
+      <c r="AA7">
+        <v>-5.8841891241447E-7</v>
+      </c>
+      <c r="AB7">
+        <v>3.5688798133293198E-6</v>
+      </c>
+      <c r="AC7">
+        <v>-2.8634792063737202E-6</v>
+      </c>
+      <c r="AD7">
+        <v>2.2410012586836201E-4</v>
+      </c>
+      <c r="AE7">
+        <v>-1.42296369490293E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.22560726305386</v>
+      </c>
+      <c r="C8">
+        <v>-2.5712778826147498E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.6082101465483001E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.53861186122766E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.52028412656824E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.51619600133627E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.5449389374973701E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.1079247604708E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.5056288514559099E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.48688067804012E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.5249668008377799E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.52567966746954E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.4892838209652599E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.5174397170861E-2</v>
+      </c>
+      <c r="P8">
+        <v>8.0540770370099803E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-2.9257999286463601E-3</v>
+      </c>
+      <c r="R8">
+        <v>2.5704456449390802E-3</v>
+      </c>
+      <c r="S8">
+        <v>-1.00545614541395E-5</v>
+      </c>
+      <c r="T8">
+        <v>-3.57588969655018E-4</v>
+      </c>
+      <c r="U8">
+        <v>9.7601517093932498E-4</v>
+      </c>
+      <c r="V8">
+        <v>6.5219596609746098E-4</v>
+      </c>
+      <c r="W8">
+        <v>2.5379600461989098E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.8597237288677901E-3</v>
+      </c>
+      <c r="Y8">
+        <v>-3.03974793887842E-5</v>
+      </c>
+      <c r="Z8">
+        <v>5.4321599470052602E-5</v>
+      </c>
+      <c r="AA8">
+        <v>-2.13441653498521E-7</v>
+      </c>
+      <c r="AB8">
+        <v>-6.9032207011682101E-5</v>
+      </c>
+      <c r="AC8">
+        <v>1.6493996640088501E-5</v>
+      </c>
+      <c r="AD8">
+        <v>1.19716186529582E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.29492445525742E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.48876632714677698</v>
+      </c>
+      <c r="C9">
+        <v>-1.33716020202354E-3</v>
+      </c>
+      <c r="D9">
+        <v>-1.5382088896947099E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.46573066804347E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.45227244561138E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.44962078500893E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.46013068374984E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.5056288514559099E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.20789304742211E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.42161244743573E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.4437605506447199E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.45657517354E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.4404684913164101E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.46227860728621E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.0574622841624301E-4</v>
+      </c>
+      <c r="Q9">
+        <v>-9.6997621422543904E-4</v>
+      </c>
+      <c r="R9">
+        <v>1.0657687099427801E-3</v>
+      </c>
+      <c r="S9">
+        <v>-5.89139798577997E-5</v>
+      </c>
+      <c r="T9">
+        <v>4.2130646567345898E-4</v>
+      </c>
+      <c r="U9">
+        <v>2.7235358125799699E-5</v>
+      </c>
+      <c r="V9">
+        <v>-2.6966034637011902E-4</v>
+      </c>
+      <c r="W9">
+        <v>9.1166448961107395E-7</v>
+      </c>
+      <c r="X9">
+        <v>3.9330839493628797E-4</v>
+      </c>
+      <c r="Y9">
+        <v>-8.6337739246446999E-5</v>
+      </c>
+      <c r="Z9">
+        <v>1.00425840454096E-4</v>
+      </c>
+      <c r="AA9">
+        <v>-8.0558115218815999E-7</v>
+      </c>
+      <c r="AB9">
+        <v>3.6086260624404198E-6</v>
+      </c>
+      <c r="AC9">
+        <v>3.8621992385953202E-6</v>
+      </c>
+      <c r="AD9">
+        <v>3.9942548693559099E-4</v>
+      </c>
+      <c r="AE9">
+        <v>-1.5005627445569601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.25416165393420398</v>
+      </c>
+      <c r="C10">
+        <v>-1.30092978518085E-3</v>
+      </c>
+      <c r="D10">
+        <v>-1.32453238076709E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.4526026863524E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.44392135098802E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.43968788256181E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.44786050339337E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.48688067804012E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.42161244743573E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.9855129663888801E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.44352018575602E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.44607605320335E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.43212932240828E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.4442703094763599E-2</v>
+      </c>
+      <c r="P10">
+        <v>8.8287780400590603E-5</v>
+      </c>
+      <c r="Q10">
+        <v>-1.254824432496E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.2937083094631699E-3</v>
+      </c>
+      <c r="S10">
+        <v>-2.5303896545370301E-4</v>
+      </c>
+      <c r="T10">
+        <v>1.89001700221694E-4</v>
+      </c>
+      <c r="U10">
+        <v>-8.1308457064886605E-5</v>
+      </c>
+      <c r="V10">
+        <v>-2.30218657902933E-4</v>
+      </c>
+      <c r="W10">
+        <v>-2.6625977855894998E-4</v>
+      </c>
+      <c r="X10">
+        <v>3.70937306978003E-5</v>
+      </c>
+      <c r="Y10">
+        <v>-8.7877928946314198E-5</v>
+      </c>
+      <c r="Z10">
+        <v>9.9697040577753103E-5</v>
+      </c>
+      <c r="AA10">
+        <v>-8.2431622400663701E-7</v>
+      </c>
+      <c r="AB10">
+        <v>1.8267585455131399E-5</v>
+      </c>
+      <c r="AC10">
+        <v>-5.5490911693437899E-6</v>
+      </c>
+      <c r="AD10">
+        <v>4.1413191876474401E-4</v>
+      </c>
+      <c r="AE10">
+        <v>-1.47632998988537E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.20989940961260301</v>
+      </c>
+      <c r="C11">
+        <v>-1.29008079458436E-3</v>
+      </c>
+      <c r="D11">
+        <v>-1.2102992679693301E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.4817475089732199E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.46475401892255E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.46516792386223E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.4656820292998101E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.5249668008377799E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.4437605506447199E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.44352018575602E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.2872734747782598E-2</v>
+      </c>
+      <c r="M11">
+        <v>1.4517901064059899E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.4540377580936801E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.4709845817904899E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.5156864735595101E-5</v>
+      </c>
+      <c r="Q11">
+        <v>-1.27523914043064E-3</v>
+      </c>
+      <c r="R11">
+        <v>1.11288136797451E-3</v>
+      </c>
+      <c r="S11">
+        <v>-3.1624117661713101E-4</v>
+      </c>
+      <c r="T11">
+        <v>6.39992534019168E-4</v>
+      </c>
+      <c r="U11">
+        <v>3.6244666213792499E-4</v>
+      </c>
+      <c r="V11">
+        <v>3.13581927093815E-5</v>
+      </c>
+      <c r="W11">
+        <v>3.2131302511770299E-4</v>
+      </c>
+      <c r="X11">
+        <v>9.0860841852935005E-4</v>
+      </c>
+      <c r="Y11">
+        <v>-9.8188314851806806E-5</v>
+      </c>
+      <c r="Z11">
+        <v>6.2557134753396095E-5</v>
+      </c>
+      <c r="AA11">
+        <v>-4.3011849360103502E-7</v>
+      </c>
+      <c r="AB11">
+        <v>-1.5958991193298498E-5</v>
+      </c>
+      <c r="AC11">
+        <v>-1.6720022194636501E-6</v>
+      </c>
+      <c r="AD11">
+        <v>4.7154229383258698E-4</v>
+      </c>
+      <c r="AE11">
+        <v>-1.3028608880355201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.17006151107426601</v>
+      </c>
+      <c r="C12">
+        <v>-1.15738202490393E-3</v>
+      </c>
+      <c r="D12">
+        <v>-1.6793935434452499E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.48224730397939E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.46535755397444E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.45695905994308E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.47437433520663E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.52567966746954E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.45657517354E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.44607605320335E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.4517901064059899E-2</v>
+      </c>
+      <c r="M12">
+        <v>3.9788091784336198E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.44169959898654E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.46797817444171E-2</v>
+      </c>
+      <c r="P12">
+        <v>-1.5498346450382801E-4</v>
+      </c>
+      <c r="Q12">
+        <v>-9.5019491503974495E-4</v>
+      </c>
+      <c r="R12">
+        <v>2.2352830323632E-3</v>
+      </c>
+      <c r="S12">
+        <v>-7.4432599777827198E-5</v>
+      </c>
+      <c r="T12">
+        <v>2.8550299737732199E-5</v>
+      </c>
+      <c r="U12">
+        <v>2.9394518442223502E-4</v>
+      </c>
+      <c r="V12">
+        <v>4.8291519573491201E-5</v>
+      </c>
+      <c r="W12">
+        <v>9.0022219713721996E-4</v>
+      </c>
+      <c r="X12">
+        <v>3.09146598244462E-4</v>
+      </c>
+      <c r="Y12">
+        <v>-4.9241332531116099E-5</v>
+      </c>
+      <c r="Z12">
+        <v>1.7821322491489699E-4</v>
+      </c>
+      <c r="AA12">
+        <v>-1.40660400775797E-6</v>
+      </c>
+      <c r="AB12">
+        <v>-1.3812401132156401E-5</v>
+      </c>
+      <c r="AC12">
+        <v>5.9266414155682703E-6</v>
+      </c>
+      <c r="AD12">
+        <v>6.5821830790820698E-4</v>
+      </c>
+      <c r="AE12">
+        <v>-1.7716599465369E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>5.5128365577729703E-2</v>
+      </c>
+      <c r="C13">
+        <v>-4.6368933687013301E-4</v>
+      </c>
+      <c r="D13">
+        <v>-9.8148669146422296E-5</v>
+      </c>
+      <c r="E13">
+        <v>1.4655757353719601E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.45378630798492E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.4471519891933E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.45251010826285E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.4892838209652599E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.4404684913164101E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.43212932240828E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.4540377580936801E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.44169959898654E-2</v>
+      </c>
+      <c r="N13">
+        <v>3.2896506215010599E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.44828945610122E-2</v>
+      </c>
+      <c r="P13">
+        <v>-3.2760763401373598E-4</v>
+      </c>
+      <c r="Q13">
+        <v>-1.20015541172083E-3</v>
+      </c>
+      <c r="R13">
+        <v>9.2459439743688098E-4</v>
+      </c>
+      <c r="S13">
+        <v>-9.5053726571414198E-4</v>
+      </c>
+      <c r="T13">
+        <v>2.05617740284483E-4</v>
+      </c>
+      <c r="U13">
+        <v>3.7813078657878102E-4</v>
+      </c>
+      <c r="V13">
+        <v>1.74156775440417E-4</v>
+      </c>
+      <c r="W13">
+        <v>3.44074898420412E-4</v>
+      </c>
+      <c r="X13">
+        <v>7.02285998706418E-4</v>
+      </c>
+      <c r="Y13">
+        <v>-1.19334944911803E-5</v>
+      </c>
+      <c r="Z13">
+        <v>-2.46797309749169E-5</v>
+      </c>
+      <c r="AA13">
+        <v>2.6912288343789602E-7</v>
+      </c>
+      <c r="AB13">
+        <v>-3.4496444874869598E-5</v>
+      </c>
+      <c r="AC13">
+        <v>-1.8266491154370601E-6</v>
+      </c>
+      <c r="AD13">
+        <v>2.5956873489793098E-4</v>
+      </c>
+      <c r="AE13">
+        <v>-1.1165354296152299E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.48183294953878397</v>
+      </c>
+      <c r="C14">
+        <v>-5.6343147122538205E-4</v>
+      </c>
+      <c r="D14">
+        <v>-1.88874602709816E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.47929833451675E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.4690441517411701E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.45467904501487E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.4875103624333801E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.5174397170861E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.46227860728621E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.4442703094763599E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.4709845817904899E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.46797817444171E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.44828945610122E-2</v>
+      </c>
+      <c r="O14">
+        <v>6.5038668575228401E-2</v>
+      </c>
+      <c r="P14">
+        <v>5.3037478822101701E-4</v>
+      </c>
+      <c r="Q14">
+        <v>-1.91321458459626E-3</v>
+      </c>
+      <c r="R14">
+        <v>9.9982894109747504E-4</v>
+      </c>
+      <c r="S14">
+        <v>-7.5385969939527396E-4</v>
+      </c>
+      <c r="T14">
+        <v>-9.6320692888753805E-4</v>
+      </c>
+      <c r="U14">
+        <v>1.5874145743411501E-5</v>
+      </c>
+      <c r="V14">
+        <v>-8.6154337803611195E-4</v>
+      </c>
+      <c r="W14">
+        <v>-3.1483644325207998E-4</v>
+      </c>
+      <c r="X14">
+        <v>8.2867275309519896E-4</v>
+      </c>
+      <c r="Y14">
+        <v>3.1623069257142398E-5</v>
+      </c>
+      <c r="Z14">
+        <v>-7.2129135642854804E-5</v>
+      </c>
+      <c r="AA14">
+        <v>9.1562440535622604E-7</v>
+      </c>
+      <c r="AB14">
+        <v>-2.0847998700295899E-5</v>
+      </c>
+      <c r="AC14">
+        <v>5.5577751302591503E-5</v>
+      </c>
+      <c r="AD14">
+        <v>-3.1856858442428802E-4</v>
+      </c>
+      <c r="AE14">
+        <v>-1.39502845897967E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>-0.271347730509376</v>
+      </c>
+      <c r="C15">
+        <v>-7.5060985707121398E-4</v>
+      </c>
+      <c r="D15">
+        <v>-4.16676996399357E-4</v>
+      </c>
+      <c r="E15">
+        <v>5.7986357500944697E-4</v>
+      </c>
+      <c r="F15">
+        <v>-8.0456137411464006E-6</v>
+      </c>
+      <c r="G15">
+        <v>-2.6688944122158599E-5</v>
+      </c>
+      <c r="H15">
+        <v>2.81735606895342E-4</v>
+      </c>
+      <c r="I15">
+        <v>8.0540770370099803E-4</v>
+      </c>
+      <c r="J15">
+        <v>1.0574622841624301E-4</v>
+      </c>
+      <c r="K15">
+        <v>8.8287780400590603E-5</v>
+      </c>
+      <c r="L15">
+        <v>3.5156864735595101E-5</v>
+      </c>
+      <c r="M15">
+        <v>-1.5498346450382801E-4</v>
+      </c>
+      <c r="N15">
+        <v>-3.2760763401373598E-4</v>
+      </c>
+      <c r="O15">
+        <v>5.3037478822101701E-4</v>
+      </c>
+      <c r="P15">
+        <v>5.2429896086734502E-3</v>
+      </c>
+      <c r="Q15">
+        <v>-3.98564305353533E-4</v>
+      </c>
+      <c r="R15">
+        <v>1.08511964122362E-3</v>
+      </c>
+      <c r="S15">
+        <v>4.8188669723945801E-4</v>
+      </c>
+      <c r="T15">
+        <v>-1.17647210121223E-3</v>
+      </c>
+      <c r="U15">
+        <v>-3.5832609994476401E-4</v>
+      </c>
+      <c r="V15">
+        <v>-1.5272651034495499E-4</v>
+      </c>
+      <c r="W15">
+        <v>7.3775926571288002E-4</v>
+      </c>
+      <c r="X15">
+        <v>1.11229406071818E-3</v>
+      </c>
+      <c r="Y15">
+        <v>7.0200714130932203E-5</v>
+      </c>
+      <c r="Z15">
+        <v>1.3374980536941201E-4</v>
+      </c>
+      <c r="AA15">
+        <v>-1.58712575800278E-6</v>
+      </c>
+      <c r="AB15">
+        <v>-2.0373869429665801E-5</v>
+      </c>
+      <c r="AC15">
+        <v>1.3624525207411401E-5</v>
+      </c>
+      <c r="AD15">
+        <v>3.42129476065724E-4</v>
+      </c>
+      <c r="AE15">
+        <v>-6.5013923381929102E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.58046262983723895</v>
+      </c>
+      <c r="C16">
+        <v>5.2653267161984797E-4</v>
+      </c>
+      <c r="D16">
+        <v>1.30192127331598E-3</v>
+      </c>
+      <c r="E16">
+        <v>-1.53540364743244E-3</v>
+      </c>
+      <c r="F16">
+        <v>-1.57974392812893E-3</v>
+      </c>
+      <c r="G16">
+        <v>-9.2676769723834995E-4</v>
+      </c>
+      <c r="H16">
+        <v>-1.3283169987019299E-3</v>
+      </c>
+      <c r="I16">
+        <v>-2.9257999286463601E-3</v>
+      </c>
+      <c r="J16">
+        <v>-9.6997621422543904E-4</v>
+      </c>
+      <c r="K16">
+        <v>-1.254824432496E-3</v>
+      </c>
+      <c r="L16">
+        <v>-1.27523914043064E-3</v>
+      </c>
+      <c r="M16">
+        <v>-9.5019491503974495E-4</v>
+      </c>
+      <c r="N16">
+        <v>-1.20015541172083E-3</v>
+      </c>
+      <c r="O16">
+        <v>-1.91321458459626E-3</v>
+      </c>
+      <c r="P16">
+        <v>-3.98564305353533E-4</v>
+      </c>
+      <c r="Q16">
+        <v>8.2096391231252803E-3</v>
+      </c>
+      <c r="R16">
+        <v>-8.9693033519341596E-5</v>
+      </c>
+      <c r="S16">
+        <v>1.08817945291453E-3</v>
+      </c>
+      <c r="T16">
+        <v>-4.61772679092019E-4</v>
+      </c>
+      <c r="U16">
+        <v>-5.1830045403299595E-4</v>
+      </c>
+      <c r="V16">
+        <v>-1.18608026434714E-3</v>
+      </c>
+      <c r="W16">
+        <v>-2.3730788565272899E-3</v>
+      </c>
+      <c r="X16">
+        <v>-2.083993935085E-3</v>
+      </c>
+      <c r="Y16">
+        <v>-5.9215360587173098E-5</v>
+      </c>
+      <c r="Z16">
+        <v>-7.9275825234366806E-6</v>
+      </c>
+      <c r="AA16">
+        <v>-4.1072929052159197E-7</v>
+      </c>
+      <c r="AB16">
+        <v>-2.8679970233795999E-5</v>
+      </c>
+      <c r="AC16">
+        <v>-4.80617264151622E-5</v>
+      </c>
+      <c r="AD16">
+        <v>1.7312548880476001E-4</v>
+      </c>
+      <c r="AE16">
+        <v>1.9753886730681201E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>-0.56431918338421405</v>
+      </c>
+      <c r="C17">
+        <v>-6.8693822403318003E-4</v>
+      </c>
+      <c r="D17">
+        <v>-2.23617551619233E-4</v>
+      </c>
+      <c r="E17">
+        <v>2.0868198542333401E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.38947917013926E-3</v>
+      </c>
+      <c r="G17">
+        <v>1.2139389885349699E-3</v>
+      </c>
+      <c r="H17">
+        <v>1.1602239022913501E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.5704456449390802E-3</v>
+      </c>
+      <c r="J17">
+        <v>1.0657687099427801E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.2937083094631699E-3</v>
+      </c>
+      <c r="L17">
+        <v>1.11288136797451E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.2352830323632E-3</v>
+      </c>
+      <c r="N17">
+        <v>9.2459439743688098E-4</v>
+      </c>
+      <c r="O17">
+        <v>9.9982894109747504E-4</v>
+      </c>
+      <c r="P17">
+        <v>1.08511964122362E-3</v>
+      </c>
+      <c r="Q17">
+        <v>-8.9693033519341596E-5</v>
+      </c>
+      <c r="R17">
+        <v>1.28781778826337E-2</v>
+      </c>
+      <c r="S17">
+        <v>1.1463493791611301E-3</v>
+      </c>
+      <c r="T17">
+        <v>-1.2220348765209E-3</v>
+      </c>
+      <c r="U17">
+        <v>9.6329560195388005E-4</v>
+      </c>
+      <c r="V17">
+        <v>1.1202409457789801E-3</v>
+      </c>
+      <c r="W17">
+        <v>1.8036920522875601E-3</v>
+      </c>
+      <c r="X17">
+        <v>1.31807438766445E-3</v>
+      </c>
+      <c r="Y17">
+        <v>-3.3195904376141801E-6</v>
+      </c>
+      <c r="Z17">
+        <v>5.9540828984101205E-4</v>
+      </c>
+      <c r="AA17">
+        <v>-4.9706024760267802E-6</v>
+      </c>
+      <c r="AB17">
+        <v>-2.3618656853276401E-5</v>
+      </c>
+      <c r="AC17">
+        <v>1.0428493002266001E-5</v>
+      </c>
+      <c r="AD17">
+        <v>5.0069465558423597E-4</v>
+      </c>
+      <c r="AE17">
+        <v>-2.00948967093874E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>-0.22266885007121601</v>
+      </c>
+      <c r="C18">
+        <v>-2.6184205434578702E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.83800444310347E-4</v>
+      </c>
+      <c r="E18">
+        <v>-2.96070419583276E-4</v>
+      </c>
+      <c r="F18">
+        <v>-5.7959967245407504E-4</v>
+      </c>
+      <c r="G18">
+        <v>-2.4129255916666199E-4</v>
+      </c>
+      <c r="H18">
+        <v>-9.2824768774424699E-5</v>
+      </c>
+      <c r="I18">
+        <v>-1.00545614541395E-5</v>
+      </c>
+      <c r="J18">
+        <v>-5.89139798577997E-5</v>
+      </c>
+      <c r="K18">
+        <v>-2.5303896545370301E-4</v>
+      </c>
+      <c r="L18">
+        <v>-3.1624117661713101E-4</v>
+      </c>
+      <c r="M18">
+        <v>-7.4432599777827198E-5</v>
+      </c>
+      <c r="N18">
+        <v>-9.5053726571414198E-4</v>
+      </c>
+      <c r="O18">
+        <v>-7.5385969939527396E-4</v>
+      </c>
+      <c r="P18">
+        <v>4.8188669723945801E-4</v>
+      </c>
+      <c r="Q18">
+        <v>1.08817945291453E-3</v>
+      </c>
+      <c r="R18">
+        <v>1.1463493791611301E-3</v>
+      </c>
+      <c r="S18">
+        <v>9.1442191719764299E-3</v>
+      </c>
+      <c r="T18">
+        <v>-2.4664432499654901E-4</v>
+      </c>
+      <c r="U18">
+        <v>2.7299944351007503E-4</v>
+      </c>
+      <c r="V18">
+        <v>4.8546055096317401E-4</v>
+      </c>
+      <c r="W18">
+        <v>6.9806557764738901E-4</v>
+      </c>
+      <c r="X18">
+        <v>9.3368857643373897E-4</v>
+      </c>
+      <c r="Y18">
+        <v>1.54939206778722E-5</v>
+      </c>
+      <c r="Z18">
+        <v>1.16364406995527E-4</v>
+      </c>
+      <c r="AA18">
+        <v>-1.70710168364861E-6</v>
+      </c>
+      <c r="AB18">
+        <v>1.93557514883364E-5</v>
+      </c>
+      <c r="AC18">
+        <v>5.4807497156366604E-6</v>
+      </c>
+      <c r="AD18">
+        <v>1.0620494919735301E-3</v>
+      </c>
+      <c r="AE18">
+        <v>-5.7139871776375204E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.19635815897797201</v>
+      </c>
+      <c r="C19">
+        <v>-4.1299251457160401E-4</v>
+      </c>
+      <c r="D19">
+        <v>-2.25635213407737E-4</v>
+      </c>
+      <c r="E19">
+        <v>3.7632056665104902E-5</v>
+      </c>
+      <c r="F19">
+        <v>6.5474504586370799E-4</v>
+      </c>
+      <c r="G19">
+        <v>5.3986246087773898E-5</v>
+      </c>
+      <c r="H19">
+        <v>3.5023655860301299E-4</v>
+      </c>
+      <c r="I19">
+        <v>-3.57588969655018E-4</v>
+      </c>
+      <c r="J19">
+        <v>4.2130646567345898E-4</v>
+      </c>
+      <c r="K19">
+        <v>1.89001700221694E-4</v>
+      </c>
+      <c r="L19">
+        <v>6.39992534019168E-4</v>
+      </c>
+      <c r="M19">
+        <v>2.8550299737732199E-5</v>
+      </c>
+      <c r="N19">
+        <v>2.05617740284483E-4</v>
+      </c>
+      <c r="O19">
+        <v>-9.6320692888753805E-4</v>
+      </c>
+      <c r="P19">
+        <v>-1.17647210121223E-3</v>
+      </c>
+      <c r="Q19">
+        <v>-4.61772679092019E-4</v>
+      </c>
+      <c r="R19">
+        <v>-1.2220348765209E-3</v>
+      </c>
+      <c r="S19">
+        <v>-2.4664432499654901E-4</v>
+      </c>
+      <c r="T19">
+        <v>8.6155144922888602E-3</v>
+      </c>
+      <c r="U19">
+        <v>3.2146196969933699E-4</v>
+      </c>
+      <c r="V19">
+        <v>2.37354422542767E-4</v>
+      </c>
+      <c r="W19">
+        <v>3.5483638623616602E-4</v>
+      </c>
+      <c r="X19">
+        <v>5.0840878463866796E-4</v>
+      </c>
+      <c r="Y19">
+        <v>-9.4142476276731105E-6</v>
+      </c>
+      <c r="Z19">
+        <v>1.11125146350836E-4</v>
+      </c>
+      <c r="AA19">
+        <v>-6.38552270794735E-7</v>
+      </c>
+      <c r="AB19">
+        <v>4.2552586213091201E-5</v>
+      </c>
+      <c r="AC19">
+        <v>-1.51566776275848E-5</v>
+      </c>
+      <c r="AD19">
+        <v>-3.3385491540634899E-4</v>
+      </c>
+      <c r="AE19">
+        <v>-4.7182135674064801E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.18969820435103199</v>
+      </c>
+      <c r="C20">
+        <v>-1.14208761414163E-4</v>
+      </c>
+      <c r="D20">
+        <v>1.43893994920747E-4</v>
+      </c>
+      <c r="E20">
+        <v>5.7451599723462696E-4</v>
+      </c>
+      <c r="F20">
+        <v>2.9248802361893999E-5</v>
+      </c>
+      <c r="G20">
+        <v>-2.01355720936551E-4</v>
+      </c>
+      <c r="H20">
+        <v>1.9420780197411099E-4</v>
+      </c>
+      <c r="I20">
+        <v>9.7601517093932498E-4</v>
+      </c>
+      <c r="J20">
+        <v>2.7235358125799699E-5</v>
+      </c>
+      <c r="K20">
+        <v>-8.1308457064886605E-5</v>
+      </c>
+      <c r="L20">
+        <v>3.6244666213792499E-4</v>
+      </c>
+      <c r="M20">
+        <v>2.9394518442223502E-4</v>
+      </c>
+      <c r="N20">
+        <v>3.7813078657878102E-4</v>
+      </c>
+      <c r="O20">
+        <v>1.5874145743411501E-5</v>
+      </c>
+      <c r="P20">
+        <v>-3.5832609994476401E-4</v>
+      </c>
+      <c r="Q20">
+        <v>-5.1830045403299595E-4</v>
+      </c>
+      <c r="R20">
+        <v>9.6329560195388005E-4</v>
+      </c>
+      <c r="S20">
+        <v>2.7299944351007503E-4</v>
+      </c>
+      <c r="T20">
+        <v>3.2146196969933699E-4</v>
+      </c>
+      <c r="U20">
+        <v>1.1048903939840799E-2</v>
+      </c>
+      <c r="V20">
+        <v>6.8907562591691198E-3</v>
+      </c>
+      <c r="W20">
+        <v>6.8796377576262604E-3</v>
+      </c>
+      <c r="X20">
+        <v>6.8045996914766404E-3</v>
+      </c>
+      <c r="Y20">
+        <v>5.6828885987384202E-6</v>
+      </c>
+      <c r="Z20">
+        <v>1.5384116604950298E-5</v>
+      </c>
+      <c r="AA20">
+        <v>6.6260005385503002E-9</v>
+      </c>
+      <c r="AB20">
+        <v>-1.1204456561395E-5</v>
+      </c>
+      <c r="AC20">
+        <v>2.93320099674842E-6</v>
+      </c>
+      <c r="AD20">
+        <v>6.6291279798491606E-5</v>
+      </c>
+      <c r="AE20">
+        <v>-6.8570922817139598E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.21257336377823299</v>
+      </c>
+      <c r="C21">
+        <v>-1.7927489265219E-4</v>
+      </c>
+      <c r="D21">
+        <v>6.1993500637285695E-4</v>
+      </c>
+      <c r="E21">
+        <v>-2.71675097917612E-5</v>
+      </c>
+      <c r="F21">
+        <v>-5.7135309809450802E-4</v>
+      </c>
+      <c r="G21">
+        <v>1.17797936279322E-4</v>
+      </c>
+      <c r="H21">
+        <v>-5.6793705608299E-5</v>
+      </c>
+      <c r="I21">
+        <v>6.5219596609746098E-4</v>
+      </c>
+      <c r="J21">
+        <v>-2.6966034637011902E-4</v>
+      </c>
+      <c r="K21">
+        <v>-2.30218657902933E-4</v>
+      </c>
+      <c r="L21">
+        <v>3.13581927093815E-5</v>
+      </c>
+      <c r="M21">
+        <v>4.8291519573491201E-5</v>
+      </c>
+      <c r="N21">
+        <v>1.74156775440417E-4</v>
+      </c>
+      <c r="O21">
+        <v>-8.6154337803611195E-4</v>
+      </c>
+      <c r="P21">
+        <v>-1.5272651034495499E-4</v>
+      </c>
+      <c r="Q21">
+        <v>-1.18608026434714E-3</v>
+      </c>
+      <c r="R21">
+        <v>1.1202409457789801E-3</v>
+      </c>
+      <c r="S21">
+        <v>4.8546055096317401E-4</v>
+      </c>
+      <c r="T21">
+        <v>2.37354422542767E-4</v>
+      </c>
+      <c r="U21">
+        <v>6.8907562591691198E-3</v>
+      </c>
+      <c r="V21">
+        <v>1.13892381804299E-2</v>
+      </c>
+      <c r="W21">
+        <v>8.0029751151600992E-3</v>
+      </c>
+      <c r="X21">
+        <v>7.5210448736672004E-3</v>
+      </c>
+      <c r="Y21">
+        <v>4.7627458335212702E-5</v>
+      </c>
+      <c r="Z21">
+        <v>-7.8175358933290797E-6</v>
+      </c>
+      <c r="AA21">
+        <v>2.3336197030425899E-7</v>
+      </c>
+      <c r="AB21">
+        <v>-4.3168924921478597E-5</v>
+      </c>
+      <c r="AC21">
+        <v>-1.339031206957E-5</v>
+      </c>
+      <c r="AD21">
+        <v>4.5797956248291898E-4</v>
+      </c>
+      <c r="AE21">
+        <v>-4.5930286563514904E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.24731345294804899</v>
+      </c>
+      <c r="C22">
+        <v>-3.3581363057382798E-4</v>
+      </c>
+      <c r="D22">
+        <v>7.3459289224300903E-4</v>
+      </c>
+      <c r="E22">
+        <v>4.1647094008728298E-4</v>
+      </c>
+      <c r="F22">
+        <v>-6.4953337534689895E-5</v>
+      </c>
+      <c r="G22">
+        <v>3.6668428570001301E-5</v>
+      </c>
+      <c r="H22">
+        <v>3.74734660460029E-4</v>
+      </c>
+      <c r="I22">
+        <v>2.5379600461989098E-3</v>
+      </c>
+      <c r="J22">
+        <v>9.1166448961107395E-7</v>
+      </c>
+      <c r="K22">
+        <v>-2.6625977855894998E-4</v>
+      </c>
+      <c r="L22">
+        <v>3.2131302511770299E-4</v>
+      </c>
+      <c r="M22">
+        <v>9.0022219713721996E-4</v>
+      </c>
+      <c r="N22">
+        <v>3.44074898420412E-4</v>
+      </c>
+      <c r="O22">
+        <v>-3.1483644325207998E-4</v>
+      </c>
+      <c r="P22">
+        <v>7.3775926571288002E-4</v>
+      </c>
+      <c r="Q22">
+        <v>-2.3730788565272899E-3</v>
+      </c>
+      <c r="R22">
+        <v>1.8036920522875601E-3</v>
+      </c>
+      <c r="S22">
+        <v>6.9806557764738901E-4</v>
+      </c>
+      <c r="T22">
+        <v>3.5483638623616602E-4</v>
+      </c>
+      <c r="U22">
+        <v>6.8796377576262604E-3</v>
+      </c>
+      <c r="V22">
+        <v>8.0029751151600992E-3</v>
+      </c>
+      <c r="W22">
+        <v>1.2871021491803501E-2</v>
+      </c>
+      <c r="X22">
+        <v>8.5948816003199192E-3</v>
+      </c>
+      <c r="Y22">
+        <v>1.06785708836486E-4</v>
+      </c>
+      <c r="Z22">
+        <v>-1.3908163432138101E-5</v>
+      </c>
+      <c r="AA22">
+        <v>3.2584486708180902E-7</v>
+      </c>
+      <c r="AB22">
+        <v>-6.8010910547030307E-5</v>
+      </c>
+      <c r="AC22">
+        <v>-9.9630871616438093E-6</v>
+      </c>
+      <c r="AD22">
+        <v>6.1239330971894095E-4</v>
+      </c>
+      <c r="AE22">
+        <v>-5.1275597015060697E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.43455232471774302</v>
+      </c>
+      <c r="C23">
+        <v>8.2895357875404101E-4</v>
+      </c>
+      <c r="D23">
+        <v>2.2534248743163901E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.18286212287421E-3</v>
+      </c>
+      <c r="F23">
+        <v>4.44799907389264E-4</v>
+      </c>
+      <c r="G23">
+        <v>7.0935345386362802E-4</v>
+      </c>
+      <c r="H23">
+        <v>7.87930054687219E-4</v>
+      </c>
+      <c r="I23">
+        <v>1.8597237288677901E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.9330839493628797E-4</v>
+      </c>
+      <c r="K23">
+        <v>3.70937306978003E-5</v>
+      </c>
+      <c r="L23">
+        <v>9.0860841852935005E-4</v>
+      </c>
+      <c r="M23">
+        <v>3.09146598244462E-4</v>
+      </c>
+      <c r="N23">
+        <v>7.02285998706418E-4</v>
+      </c>
+      <c r="O23">
+        <v>8.2867275309519896E-4</v>
+      </c>
+      <c r="P23">
+        <v>1.11229406071818E-3</v>
+      </c>
+      <c r="Q23">
+        <v>-2.083993935085E-3</v>
+      </c>
+      <c r="R23">
+        <v>1.31807438766445E-3</v>
+      </c>
+      <c r="S23">
+        <v>9.3368857643373897E-4</v>
+      </c>
+      <c r="T23">
+        <v>5.0840878463866796E-4</v>
+      </c>
+      <c r="U23">
+        <v>6.8045996914766404E-3</v>
+      </c>
+      <c r="V23">
+        <v>7.5210448736672004E-3</v>
+      </c>
+      <c r="W23">
+        <v>8.5948816003199192E-3</v>
+      </c>
+      <c r="X23">
+        <v>1.21158190979858E-2</v>
+      </c>
+      <c r="Y23">
+        <v>8.1498804518891093E-5</v>
+      </c>
+      <c r="Z23">
+        <v>9.1802601091207996E-6</v>
+      </c>
+      <c r="AA23">
+        <v>-2.0173337007615699E-8</v>
+      </c>
+      <c r="AB23">
+        <v>-4.2882549984250003E-5</v>
+      </c>
+      <c r="AC23">
+        <v>-2.1504452542317699E-5</v>
+      </c>
+      <c r="AD23">
+        <v>1.96683331425307E-4</v>
+      </c>
+      <c r="AE23">
+        <v>-7.0436037539241903E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>-0.101045879127952</v>
+      </c>
+      <c r="C24">
+        <v>3.6333099468772797E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.31662138524902E-4</v>
+      </c>
+      <c r="E24">
+        <v>-6.7018439924066998E-5</v>
+      </c>
+      <c r="F24">
+        <v>-6.9632895909373896E-5</v>
+      </c>
+      <c r="G24">
+        <v>-4.5917840359268E-5</v>
+      </c>
+      <c r="H24">
+        <v>-1.08596773067948E-4</v>
+      </c>
+      <c r="I24">
+        <v>-3.03974793887842E-5</v>
+      </c>
+      <c r="J24">
+        <v>-8.6337739246446999E-5</v>
+      </c>
+      <c r="K24">
+        <v>-8.7877928946314198E-5</v>
+      </c>
+      <c r="L24">
+        <v>-9.8188314851806806E-5</v>
+      </c>
+      <c r="M24">
+        <v>-4.9241332531116099E-5</v>
+      </c>
+      <c r="N24">
+        <v>-1.19334944911803E-5</v>
+      </c>
+      <c r="O24">
+        <v>3.1623069257142398E-5</v>
+      </c>
+      <c r="P24">
+        <v>7.0200714130932203E-5</v>
+      </c>
+      <c r="Q24">
+        <v>-5.9215360587173098E-5</v>
+      </c>
+      <c r="R24">
+        <v>-3.3195904376141801E-6</v>
+      </c>
+      <c r="S24">
+        <v>1.54939206778722E-5</v>
+      </c>
+      <c r="T24">
+        <v>-9.4142476276731105E-6</v>
+      </c>
+      <c r="U24">
+        <v>5.6828885987384202E-6</v>
+      </c>
+      <c r="V24">
+        <v>4.7627458335212702E-5</v>
+      </c>
+      <c r="W24">
+        <v>1.06785708836486E-4</v>
+      </c>
+      <c r="X24">
+        <v>8.1498804518891093E-5</v>
+      </c>
+      <c r="Y24">
+        <v>9.5415882344911403E-5</v>
+      </c>
+      <c r="Z24">
+        <v>-1.0937194538693901E-5</v>
+      </c>
+      <c r="AA24">
+        <v>4.8254115579066501E-8</v>
+      </c>
+      <c r="AB24">
+        <v>1.3297079132162401E-6</v>
+      </c>
+      <c r="AC24">
+        <v>-2.6432490627626798E-7</v>
+      </c>
+      <c r="AD24">
+        <v>1.6948343606321799E-5</v>
+      </c>
+      <c r="AE24">
+        <v>-9.8301935226287893E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>-2.4246587256044401E-2</v>
+      </c>
+      <c r="C25">
+        <v>-2.65372853230976E-5</v>
+      </c>
+      <c r="D25">
+        <v>4.7316022995788703E-5</v>
+      </c>
+      <c r="E25">
+        <v>1.0069879560409099E-4</v>
+      </c>
+      <c r="F25">
+        <v>4.3295616268281399E-5</v>
+      </c>
+      <c r="G25">
+        <v>2.6533468025647001E-5</v>
+      </c>
+      <c r="H25">
+        <v>8.4539020346882299E-5</v>
+      </c>
+      <c r="I25">
+        <v>5.4321599470052602E-5</v>
+      </c>
+      <c r="J25">
+        <v>1.00425840454096E-4</v>
+      </c>
+      <c r="K25">
+        <v>9.9697040577753103E-5</v>
+      </c>
+      <c r="L25">
+        <v>6.2557134753396095E-5</v>
+      </c>
+      <c r="M25">
+        <v>1.7821322491489699E-4</v>
+      </c>
+      <c r="N25">
+        <v>-2.46797309749169E-5</v>
+      </c>
+      <c r="O25">
+        <v>-7.2129135642854804E-5</v>
+      </c>
+      <c r="P25">
+        <v>1.3374980536941201E-4</v>
+      </c>
+      <c r="Q25">
+        <v>-7.9275825234366806E-6</v>
+      </c>
+      <c r="R25">
+        <v>5.9540828984101205E-4</v>
+      </c>
+      <c r="S25">
+        <v>1.16364406995527E-4</v>
+      </c>
+      <c r="T25">
+        <v>1.11125146350836E-4</v>
+      </c>
+      <c r="U25">
+        <v>1.5384116604950298E-5</v>
+      </c>
+      <c r="V25">
+        <v>-7.8175358933290797E-6</v>
+      </c>
+      <c r="W25">
+        <v>-1.3908163432138101E-5</v>
+      </c>
+      <c r="X25">
+        <v>9.1802601091207996E-6</v>
+      </c>
+      <c r="Y25">
+        <v>-1.0937194538693901E-5</v>
+      </c>
+      <c r="Z25">
+        <v>1.3378018159639299E-4</v>
+      </c>
+      <c r="AA25">
+        <v>-1.25576142793583E-6</v>
+      </c>
+      <c r="AB25">
+        <v>5.1402087950295303E-6</v>
+      </c>
+      <c r="AC25">
+        <v>-2.8301278486386099E-6</v>
+      </c>
+      <c r="AD25">
+        <v>4.0216779680156601E-5</v>
+      </c>
+      <c r="AE25">
+        <v>-3.4470727884442901E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1.02175125610837E-3</v>
+      </c>
+      <c r="C26">
+        <v>1.12053187463069E-7</v>
+      </c>
+      <c r="D26">
+        <v>-1.23846419788433E-6</v>
+      </c>
+      <c r="E26">
+        <v>-7.9196306900298099E-7</v>
+      </c>
+      <c r="F26">
+        <v>-1.88903767690967E-7</v>
+      </c>
+      <c r="G26">
+        <v>-1.6218328779773499E-7</v>
+      </c>
+      <c r="H26">
+        <v>-5.8841891241447E-7</v>
+      </c>
+      <c r="I26">
+        <v>-2.13441653498521E-7</v>
+      </c>
+      <c r="J26">
+        <v>-8.0558115218815999E-7</v>
+      </c>
+      <c r="K26">
+        <v>-8.2431622400663701E-7</v>
+      </c>
+      <c r="L26">
+        <v>-4.3011849360103502E-7</v>
+      </c>
+      <c r="M26">
+        <v>-1.40660400775797E-6</v>
+      </c>
+      <c r="N26">
+        <v>2.6912288343789602E-7</v>
+      </c>
+      <c r="O26">
+        <v>9.1562440535622604E-7</v>
+      </c>
+      <c r="P26">
+        <v>-1.58712575800278E-6</v>
+      </c>
+      <c r="Q26">
+        <v>-4.1072929052159197E-7</v>
+      </c>
+      <c r="R26">
+        <v>-4.9706024760267802E-6</v>
+      </c>
+      <c r="S26">
+        <v>-1.70710168364861E-6</v>
+      </c>
+      <c r="T26">
+        <v>-6.38552270794735E-7</v>
+      </c>
+      <c r="U26">
+        <v>6.6260005385503002E-9</v>
+      </c>
+      <c r="V26">
+        <v>2.3336197030425899E-7</v>
+      </c>
+      <c r="W26">
+        <v>3.2584486708180902E-7</v>
+      </c>
+      <c r="X26">
+        <v>-2.0173337007615699E-8</v>
+      </c>
+      <c r="Y26">
+        <v>4.8254115579066501E-8</v>
+      </c>
+      <c r="Z26">
+        <v>-1.25576142793583E-6</v>
+      </c>
+      <c r="AA26">
+        <v>1.2349082567953801E-8</v>
+      </c>
+      <c r="AB26">
+        <v>-6.7045275691017096E-8</v>
+      </c>
+      <c r="AC26">
+        <v>4.6849123522113201E-8</v>
+      </c>
+      <c r="AD26">
+        <v>-5.0953849422778604E-7</v>
+      </c>
+      <c r="AE26">
+        <v>3.1968111706390797E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.55322952336525699</v>
+      </c>
+      <c r="C27">
+        <v>-8.9402028341862002E-6</v>
+      </c>
+      <c r="D27">
+        <v>8.7416989810492898E-6</v>
+      </c>
+      <c r="E27">
+        <v>3.5643107266147402E-7</v>
+      </c>
+      <c r="F27">
+        <v>2.7638582892108599E-5</v>
+      </c>
+      <c r="G27">
+        <v>-1.51128469591007E-5</v>
+      </c>
+      <c r="H27">
+        <v>3.5688798133293198E-6</v>
+      </c>
+      <c r="I27">
+        <v>-6.9032207011682101E-5</v>
+      </c>
+      <c r="J27">
+        <v>3.6086260624404198E-6</v>
+      </c>
+      <c r="K27">
+        <v>1.8267585455131399E-5</v>
+      </c>
+      <c r="L27">
+        <v>-1.5958991193298498E-5</v>
+      </c>
+      <c r="M27">
+        <v>-1.3812401132156401E-5</v>
+      </c>
+      <c r="N27">
+        <v>-3.4496444874869598E-5</v>
+      </c>
+      <c r="O27">
+        <v>-2.0847998700295899E-5</v>
+      </c>
+      <c r="P27">
+        <v>-2.0373869429665801E-5</v>
+      </c>
+      <c r="Q27">
+        <v>-2.8679970233795999E-5</v>
+      </c>
+      <c r="R27">
+        <v>-2.3618656853276401E-5</v>
+      </c>
+      <c r="S27">
+        <v>1.93557514883364E-5</v>
+      </c>
+      <c r="T27">
+        <v>4.2552586213091201E-5</v>
+      </c>
+      <c r="U27">
+        <v>-1.1204456561395E-5</v>
+      </c>
+      <c r="V27">
+        <v>-4.3168924921478597E-5</v>
+      </c>
+      <c r="W27">
+        <v>-6.8010910547030307E-5</v>
+      </c>
+      <c r="X27">
+        <v>-4.2882549984250003E-5</v>
+      </c>
+      <c r="Y27">
+        <v>1.3297079132162401E-6</v>
+      </c>
+      <c r="Z27">
+        <v>5.1402087950295303E-6</v>
+      </c>
+      <c r="AA27">
+        <v>-6.7045275691017096E-8</v>
+      </c>
+      <c r="AB27">
+        <v>2.5533740768831601E-5</v>
+      </c>
+      <c r="AC27">
+        <v>-1.1630270743136001E-6</v>
+      </c>
+      <c r="AD27">
+        <v>-5.0015482684401002E-5</v>
+      </c>
+      <c r="AE27">
+        <v>-1.24495176913794E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0.122604084141802</v>
+      </c>
+      <c r="C28">
+        <v>1.5019478353939801E-5</v>
+      </c>
+      <c r="D28">
+        <v>1.32212527430012E-5</v>
+      </c>
+      <c r="E28">
+        <v>2.3970914462500599E-5</v>
+      </c>
+      <c r="F28">
+        <v>5.8559924784632698E-6</v>
+      </c>
+      <c r="G28">
+        <v>1.0075959720732401E-5</v>
+      </c>
+      <c r="H28">
+        <v>-2.8634792063737202E-6</v>
+      </c>
+      <c r="I28">
+        <v>1.6493996640088501E-5</v>
+      </c>
+      <c r="J28">
+        <v>3.8621992385953202E-6</v>
+      </c>
+      <c r="K28">
+        <v>-5.5490911693437899E-6</v>
+      </c>
+      <c r="L28">
+        <v>-1.6720022194636501E-6</v>
+      </c>
+      <c r="M28">
+        <v>5.9266414155682703E-6</v>
+      </c>
+      <c r="N28">
+        <v>-1.8266491154370601E-6</v>
+      </c>
+      <c r="O28">
+        <v>5.5577751302591503E-5</v>
+      </c>
+      <c r="P28">
+        <v>1.3624525207411401E-5</v>
+      </c>
+      <c r="Q28">
+        <v>-4.80617264151622E-5</v>
+      </c>
+      <c r="R28">
+        <v>1.0428493002266001E-5</v>
+      </c>
+      <c r="S28">
+        <v>5.4807497156366604E-6</v>
+      </c>
+      <c r="T28">
+        <v>-1.51566776275848E-5</v>
+      </c>
+      <c r="U28">
+        <v>2.93320099674842E-6</v>
+      </c>
+      <c r="V28">
+        <v>-1.339031206957E-5</v>
+      </c>
+      <c r="W28">
+        <v>-9.9630871616438093E-6</v>
+      </c>
+      <c r="X28">
+        <v>-2.1504452542317699E-5</v>
+      </c>
+      <c r="Y28">
+        <v>-2.6432490627626798E-7</v>
+      </c>
+      <c r="Z28">
+        <v>-2.8301278486386099E-6</v>
+      </c>
+      <c r="AA28">
+        <v>4.6849123522113201E-8</v>
+      </c>
+      <c r="AB28">
+        <v>-1.1630270743136001E-6</v>
+      </c>
+      <c r="AC28">
+        <v>1.23936769046493E-5</v>
+      </c>
+      <c r="AD28">
+        <v>-1.06485462126542E-5</v>
+      </c>
+      <c r="AE28">
+        <v>-5.3374627370613098E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0.68572442400312605</v>
+      </c>
+      <c r="C29">
+        <v>-2.18341334597866E-4</v>
+      </c>
+      <c r="D29">
+        <v>6.4452061576201697E-5</v>
+      </c>
+      <c r="E29">
+        <v>2.5278832512364599E-5</v>
+      </c>
+      <c r="F29">
+        <v>8.2554415797124402E-5</v>
+      </c>
+      <c r="G29">
+        <v>6.2911112894952002E-4</v>
+      </c>
+      <c r="H29">
+        <v>2.2410012586836201E-4</v>
+      </c>
+      <c r="I29">
+        <v>1.19716186529582E-3</v>
+      </c>
+      <c r="J29">
+        <v>3.9942548693559099E-4</v>
+      </c>
+      <c r="K29">
+        <v>4.1413191876474401E-4</v>
+      </c>
+      <c r="L29">
+        <v>4.7154229383258698E-4</v>
+      </c>
+      <c r="M29">
+        <v>6.5821830790820698E-4</v>
+      </c>
+      <c r="N29">
+        <v>2.5956873489793098E-4</v>
+      </c>
+      <c r="O29">
+        <v>-3.1856858442428802E-4</v>
+      </c>
+      <c r="P29">
+        <v>3.42129476065724E-4</v>
+      </c>
+      <c r="Q29">
+        <v>1.7312548880476001E-4</v>
+      </c>
+      <c r="R29">
+        <v>5.0069465558423597E-4</v>
+      </c>
+      <c r="S29">
+        <v>1.0620494919735301E-3</v>
+      </c>
+      <c r="T29">
+        <v>-3.3385491540634899E-4</v>
+      </c>
+      <c r="U29">
+        <v>6.6291279798491606E-5</v>
+      </c>
+      <c r="V29">
+        <v>4.5797956248291898E-4</v>
+      </c>
+      <c r="W29">
+        <v>6.1239330971894095E-4</v>
+      </c>
+      <c r="X29">
+        <v>1.96683331425307E-4</v>
+      </c>
+      <c r="Y29">
+        <v>1.6948343606321799E-5</v>
+      </c>
+      <c r="Z29">
+        <v>4.0216779680156601E-5</v>
+      </c>
+      <c r="AA29">
+        <v>-5.0953849422778604E-7</v>
+      </c>
+      <c r="AB29">
+        <v>-5.0015482684401002E-5</v>
+      </c>
+      <c r="AC29">
+        <v>-1.06485462126542E-5</v>
+      </c>
+      <c r="AD29">
+        <v>4.6105448629133704E-3</v>
+      </c>
+      <c r="AE29">
+        <v>-9.5526733879159101E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>14.6909653453276</v>
+      </c>
+      <c r="C30">
+        <v>-2.23531119898968E-3</v>
+      </c>
+      <c r="D30">
+        <v>-6.5279493335442798E-3</v>
+      </c>
+      <c r="E30">
+        <v>-1.6847735244510401E-2</v>
+      </c>
+      <c r="F30">
+        <v>-1.50517433893554E-2</v>
+      </c>
+      <c r="G30">
+        <v>-1.38081263080259E-2</v>
+      </c>
+      <c r="H30">
+        <v>-1.42296369490293E-2</v>
+      </c>
+      <c r="I30">
+        <v>-1.29492445525742E-2</v>
+      </c>
+      <c r="J30">
+        <v>-1.5005627445569601E-2</v>
+      </c>
+      <c r="K30">
+        <v>-1.47632998988537E-2</v>
+      </c>
+      <c r="L30">
+        <v>-1.3028608880355201E-2</v>
+      </c>
+      <c r="M30">
+        <v>-1.7716599465369E-2</v>
+      </c>
+      <c r="N30">
+        <v>-1.1165354296152299E-2</v>
+      </c>
+      <c r="O30">
+        <v>-1.39502845897967E-2</v>
+      </c>
+      <c r="P30">
+        <v>-6.5013923381929102E-3</v>
+      </c>
+      <c r="Q30">
+        <v>1.9753886730681201E-3</v>
+      </c>
+      <c r="R30">
+        <v>-2.00948967093874E-2</v>
+      </c>
+      <c r="S30">
+        <v>-5.7139871776375204E-3</v>
+      </c>
+      <c r="T30">
+        <v>-4.7182135674064801E-3</v>
+      </c>
+      <c r="U30">
+        <v>-6.8570922817139598E-3</v>
+      </c>
+      <c r="V30">
+        <v>-4.5930286563514904E-3</v>
+      </c>
+      <c r="W30">
+        <v>-5.1275597015060697E-3</v>
+      </c>
+      <c r="X30">
+        <v>-7.0436037539241903E-3</v>
+      </c>
+      <c r="Y30">
+        <v>-9.8301935226287893E-4</v>
+      </c>
+      <c r="Z30">
+        <v>-3.4470727884442901E-3</v>
+      </c>
+      <c r="AA30">
+        <v>3.1968111706390797E-5</v>
+      </c>
+      <c r="AB30">
+        <v>-1.24495176913794E-3</v>
+      </c>
+      <c r="AC30">
+        <v>-5.3374627370613098E-4</v>
+      </c>
+      <c r="AD30">
+        <v>-9.5526733879159101E-4</v>
+      </c>
+      <c r="AE30">
+        <v>0.21779958941063501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832F923C-A72E-4542-A215-4DEB3BB7E81E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -789,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507D7AC2-8D5E-4487-A269-96C4EFD731AD}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -1094,7 +3962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44333F5-9561-412A-95A7-0F25989CF297}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
@@ -3961,7 +6829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FFD135-F68D-4BA5-8428-237AEC5FBCBF}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4266,7 +7134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31F872-D261-41D6-B2CC-193676928E50}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -4571,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F40132-42D9-423C-ACC9-22924F9D7A00}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
@@ -7438,7 +10306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5133760B-11D7-4829-93B2-89ABD9DB533E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -7743,11 +10611,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3469CB-42ED-4984-ACB1-66223A508A16}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
